--- a/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1836615455213</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2055156062308062</v>
+        <v>0.2055156062308063</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1345998074697623</v>
+        <v>0.1351095201120478</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1740634350299428</v>
+        <v>0.1721747333083302</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1329740124965849</v>
+        <v>0.1308513554769392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1719428569634014</v>
+        <v>0.1708624372078229</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1697702797372762</v>
+        <v>0.1700721330626434</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2467156199665317</v>
+        <v>0.2448099606376484</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1803362459173854</v>
+        <v>0.1795605071046284</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1867891820528041</v>
+        <v>0.1851735172454569</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.158474164673006</v>
+        <v>0.1580982313653549</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2156893646049761</v>
+        <v>0.2150134979224892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1620280677207005</v>
+        <v>0.1629629160069551</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1836918772229924</v>
+        <v>0.1853480202748297</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.19078103294554</v>
+        <v>0.1898196902546778</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2347295585544663</v>
+        <v>0.2333523624330668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1881574094573797</v>
+        <v>0.1886723415475441</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2393208823833967</v>
+        <v>0.2361677882755362</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2304056786326855</v>
+        <v>0.2316420305388696</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3134671888673915</v>
+        <v>0.3153705641855206</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2464527751914612</v>
+        <v>0.2419193952895025</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2350931863529527</v>
+        <v>0.2368021956223423</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2005561164862651</v>
+        <v>0.2013172707867319</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.261233568477908</v>
+        <v>0.2620588699477532</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2046352911351814</v>
+        <v>0.2072475482821637</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2248385900083907</v>
+        <v>0.2261606003627163</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2089842953280142</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2438981334183706</v>
+        <v>0.2438981334183707</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2437843216645535</v>
@@ -833,7 +833,7 @@
         <v>0.1905671689412197</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.233764065234718</v>
+        <v>0.2337640652347181</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1675710977875874</v>
+        <v>0.1653761479857386</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1984986514241749</v>
+        <v>0.1966878107626111</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1499211459618117</v>
+        <v>0.1468620212658396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1948970904068063</v>
+        <v>0.1959746071353766</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2620465803261302</v>
+        <v>0.2675073187489135</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2635672125936418</v>
+        <v>0.2634639291653303</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1844202047682414</v>
+        <v>0.1848247885191278</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2185720104262879</v>
+        <v>0.2208133699676567</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2219076387768297</v>
+        <v>0.2255426494303884</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2386652364043796</v>
+        <v>0.239078651593915</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1733088558601052</v>
+        <v>0.173074199338681</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2136665370239406</v>
+        <v>0.214918958735744</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.220000390439457</v>
+        <v>0.2205587596006711</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2546319594972216</v>
+        <v>0.2547089429806888</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2001170783042526</v>
+        <v>0.1956968229181023</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2550963862758827</v>
+        <v>0.2523186980632195</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3264065311565579</v>
+        <v>0.3240441497368691</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3209241917523916</v>
+        <v>0.3211459492429214</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2336972348920984</v>
+        <v>0.2356039561738223</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.267243828054154</v>
+        <v>0.267741716924332</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2633113021093933</v>
+        <v>0.2655541166240389</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.279315036036018</v>
+        <v>0.2759992474058789</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2101123444523404</v>
+        <v>0.2098052449287415</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2537489884936359</v>
+        <v>0.2539511861608508</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.15019753268378</v>
+        <v>0.1556870195903402</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2125663125751344</v>
+        <v>0.2116180772858783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1408288316608243</v>
+        <v>0.1430745400975159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1615459377627358</v>
+        <v>0.1602492253677956</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2242764716798548</v>
+        <v>0.2263441724559902</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2979929921858256</v>
+        <v>0.2978226925166778</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1698526454214403</v>
+        <v>0.1694710529689223</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2412393034742745</v>
+        <v>0.2405855750218206</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1949486318476951</v>
+        <v>0.2013373929463169</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2649910291209449</v>
+        <v>0.2644747787970738</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1620670007987812</v>
+        <v>0.164999164784397</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2086732815682306</v>
+        <v>0.2099544405039696</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2114007395494974</v>
+        <v>0.2169138410023242</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2754642833969003</v>
+        <v>0.2773612273334804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1990579814488477</v>
+        <v>0.1963268957596763</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2238167561465361</v>
+        <v>0.2267189424280871</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2934760029058975</v>
+        <v>0.2926441655063668</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3681642909053518</v>
+        <v>0.3672094338348703</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2287652054793645</v>
+        <v>0.2290266833659856</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3023496178603672</v>
+        <v>0.2971198590495682</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2435325427523842</v>
+        <v>0.2456550900876647</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3134284380970125</v>
+        <v>0.3120530475857799</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2049005829038634</v>
+        <v>0.2056662015384989</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2514967905236752</v>
+        <v>0.2517569704688941</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1245295391833774</v>
+        <v>0.1251575658529941</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1380466593650669</v>
+        <v>0.13800057737402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1443710436300335</v>
+        <v>0.1425963400117979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1849805189913421</v>
+        <v>0.1827355991865782</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1934609783669071</v>
+        <v>0.1934412141424707</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1917840439436592</v>
+        <v>0.191359562693363</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2128468570920354</v>
+        <v>0.2111353873190069</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2471192245287008</v>
+        <v>0.24820919441238</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1673389830952091</v>
+        <v>0.1680863429174055</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1726121564904515</v>
+        <v>0.1738876967854837</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1875341721100216</v>
+        <v>0.1863092142703395</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2244281554979085</v>
+        <v>0.2241558928907628</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1707366505318814</v>
+        <v>0.1702965196165855</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1877546962318855</v>
+        <v>0.1859656686788415</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1942509133304156</v>
+        <v>0.1915205632183347</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2417082671784714</v>
+        <v>0.235533617473394</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.247360359878386</v>
+        <v>0.2428834030450396</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.243047986355631</v>
+        <v>0.2439997549769147</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2659147963101334</v>
+        <v>0.2646464381121045</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2950122303984012</v>
+        <v>0.2941498906690184</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2011304058042666</v>
+        <v>0.2014588922229407</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2089856026196268</v>
+        <v>0.2110939549873853</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2261657533075638</v>
+        <v>0.2246794612226041</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2605145425412613</v>
+        <v>0.2598817741707351</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.157464536887354</v>
+        <v>0.1576402926281555</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1924663082287617</v>
+        <v>0.1924509127457591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1545779012480986</v>
+        <v>0.153718486892709</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1928149592804362</v>
+        <v>0.191728900778507</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2282491563117224</v>
+        <v>0.22961495712072</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.26092990954489</v>
+        <v>0.2608736943545716</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1999486877075719</v>
+        <v>0.2008562707075933</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.237710050008088</v>
+        <v>0.238865324630576</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1976265454514131</v>
+        <v>0.1988881852235971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2320057498353366</v>
+        <v>0.230941461576987</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1825691246258811</v>
+        <v>0.1821182271502615</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2202879314546853</v>
+        <v>0.2212558337857704</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1837504062115604</v>
+        <v>0.1851744090263748</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2224187144832533</v>
+        <v>0.2217852855863815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1814217473284463</v>
+        <v>0.1789280006531407</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2223571642903723</v>
+        <v>0.2222933387858264</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2581733691087022</v>
+        <v>0.2589919036990064</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2909485939726816</v>
+        <v>0.2918636050331002</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2287158568889233</v>
+        <v>0.2285652821353783</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2633919701758674</v>
+        <v>0.2646079491746523</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2177234842244514</v>
+        <v>0.2189262489467894</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2521224223730026</v>
+        <v>0.2524577271466536</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2018716299385435</v>
+        <v>0.2011998536914071</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2398296367169328</v>
+        <v>0.2398472623540909</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>93414</v>
+        <v>93768</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>122322</v>
+        <v>120994</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>89472</v>
+        <v>88044</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>118424</v>
+        <v>117680</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>116702</v>
+        <v>116909</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>171973</v>
+        <v>170645</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>121337</v>
+        <v>120815</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>136938</v>
+        <v>135753</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>218920</v>
+        <v>218401</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>301920</v>
+        <v>300974</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>218040</v>
+        <v>219298</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>261183</v>
+        <v>263537</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>132404</v>
+        <v>131737</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>164954</v>
+        <v>163987</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>126603</v>
+        <v>126949</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>164830</v>
+        <v>162658</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>158383</v>
+        <v>159233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>218502</v>
+        <v>219829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>165823</v>
+        <v>162773</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>172350</v>
+        <v>173603</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>277053</v>
+        <v>278104</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>365673</v>
+        <v>366828</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>275376</v>
+        <v>278892</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>319687</v>
+        <v>321567</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>161170</v>
+        <v>159059</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>202061</v>
+        <v>200218</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>152410</v>
+        <v>149301</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>204431</v>
+        <v>205561</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>253764</v>
+        <v>259052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>272050</v>
+        <v>271943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>191713</v>
+        <v>192133</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>233634</v>
+        <v>236030</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>428325</v>
+        <v>435341</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>489295</v>
+        <v>490143</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>356349</v>
+        <v>355866</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>452509</v>
+        <v>455162</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>211596</v>
+        <v>212133</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>259202</v>
+        <v>259280</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>203440</v>
+        <v>198946</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>267575</v>
+        <v>264661</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>316090</v>
+        <v>313802</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>331253</v>
+        <v>331482</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>242939</v>
+        <v>244921</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>285660</v>
+        <v>286193</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>508242</v>
+        <v>512571</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>572632</v>
+        <v>565835</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>432022</v>
+        <v>431391</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>537397</v>
+        <v>537825</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>101910</v>
+        <v>105635</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>161045</v>
+        <v>160327</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>106831</v>
+        <v>108534</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>129733</v>
+        <v>128692</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>153369</v>
+        <v>154783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>231307</v>
+        <v>231174</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>133120</v>
+        <v>132821</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>195021</v>
+        <v>194493</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>265588</v>
+        <v>274292</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>406453</v>
+        <v>405661</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>249960</v>
+        <v>254483</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>336274</v>
+        <v>338339</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>143437</v>
+        <v>147178</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>208698</v>
+        <v>210135</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>151003</v>
+        <v>148931</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>179741</v>
+        <v>182072</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>200691</v>
+        <v>200122</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>285775</v>
+        <v>285033</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>179292</v>
+        <v>179497</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>244424</v>
+        <v>240196</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>331777</v>
+        <v>334668</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>480748</v>
+        <v>478639</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>316023</v>
+        <v>317204</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>405284</v>
+        <v>405703</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>117224</v>
+        <v>117815</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>130562</v>
+        <v>130519</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>135079</v>
+        <v>133419</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>183142</v>
+        <v>180920</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>200931</v>
+        <v>200910</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>201326</v>
+        <v>200880</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>221778</v>
+        <v>219995</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>276212</v>
+        <v>277430</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>331323</v>
+        <v>332802</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>344454</v>
+        <v>347000</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>370868</v>
+        <v>368445</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>473047</v>
+        <v>472473</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>160721</v>
+        <v>160306</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>177576</v>
+        <v>175884</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>181749</v>
+        <v>179194</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>239306</v>
+        <v>233193</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>256911</v>
+        <v>252262</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>255141</v>
+        <v>256140</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>277073</v>
+        <v>275751</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>329743</v>
+        <v>328779</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>398228</v>
+        <v>398878</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>417039</v>
+        <v>421246</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>447265</v>
+        <v>444326</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>549109</v>
+        <v>547776</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>515800</v>
+        <v>516376</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>659024</v>
+        <v>658971</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>523043</v>
+        <v>520135</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>680790</v>
+        <v>676955</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>771084</v>
+        <v>775698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>927659</v>
+        <v>927459</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>707435</v>
+        <v>710646</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>886223</v>
+        <v>890530</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1314990</v>
+        <v>1323385</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1619238</v>
+        <v>1611810</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1263701</v>
+        <v>1260580</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1599061</v>
+        <v>1606087</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>601904</v>
+        <v>606568</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>761583</v>
+        <v>759415</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>613874</v>
+        <v>605436</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>785097</v>
+        <v>784872</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>872176</v>
+        <v>874941</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1034381</v>
+        <v>1037634</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>809216</v>
+        <v>808683</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>981969</v>
+        <v>986502</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1448714</v>
+        <v>1456717</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1759638</v>
+        <v>1761978</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1397308</v>
+        <v>1392659</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1740913</v>
+        <v>1741041</v>
       </c>
     </row>
     <row r="24">
